--- a/configurations_ppo.xlsx
+++ b/configurations_ppo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ebrambatti\Documents\GitHub\rewardshaping\ENVIRONMENT_FROM_SCRATCH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ebrambatti\Documents\GitHub\rewardshaping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CDF60B-0C61-40CF-903A-63B66365C3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A560DC-02BC-4B04-8915-F394365EFC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DD8557D7-6381-4966-9350-BC63F5829D76}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>m</t>
   </si>
@@ -45,30 +45,15 @@
     <t>L</t>
   </si>
   <si>
-    <t>Alpha</t>
-  </si>
-  <si>
-    <t>p1</t>
-  </si>
-  <si>
-    <t>p2</t>
-  </si>
-  <si>
     <t>c</t>
   </si>
   <si>
     <t>h</t>
   </si>
   <si>
-    <t>b2</t>
-  </si>
-  <si>
     <t>w</t>
   </si>
   <si>
-    <t>beta</t>
-  </si>
-  <si>
     <t>mean_demand</t>
   </si>
   <si>
@@ -78,9 +63,6 @@
     <t>configuration</t>
   </si>
   <si>
-    <t>b1</t>
-  </si>
-  <si>
     <t>num_episodes</t>
   </si>
   <si>
@@ -88,6 +70,12 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
@@ -464,20 +452,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F816ADEB-AF28-4EFA-B3BB-B28DB9B55580}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:Q2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.25" customWidth="1"/>
-    <col min="2" max="13" width="6.875" customWidth="1"/>
+    <col min="2" max="8" width="6.875" customWidth="1"/>
+    <col min="9" max="9" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.875" customWidth="1"/>
     <col min="14" max="14" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -486,28 +479,28 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
@@ -515,18 +508,10 @@
       <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2">
@@ -539,47 +524,39 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J2" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="K2" s="1">
+        <v>200000</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M2" s="1">
         <v>10</v>
       </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>3</v>
-      </c>
-      <c r="M2" s="1">
-        <v>3</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="O2" s="1">
-        <v>200000</v>
-      </c>
-      <c r="P2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>10</v>
-      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17">
       <c r="B3" s="1"/>

--- a/configurations_ppo.xlsx
+++ b/configurations_ppo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ebrambatti\Documents\GitHub\rewardshaping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A560DC-02BC-4B04-8915-F394365EFC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB7C19C-97C8-4F82-BECD-005BDCAA6476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DD8557D7-6381-4966-9350-BC63F5829D76}"/>
   </bookViews>
@@ -452,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F816ADEB-AF28-4EFA-B3BB-B28DB9B55580}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -545,7 +545,7 @@
         <v>0.3</v>
       </c>
       <c r="K2" s="1">
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="L2" s="1">
         <v>1000</v>

--- a/configurations_ppo.xlsx
+++ b/configurations_ppo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ebrambatti\Documents\GitHub\rewardshaping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB7C19C-97C8-4F82-BECD-005BDCAA6476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81978F04-F522-4CCF-AD6B-FFD3A73B49D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DD8557D7-6381-4966-9350-BC63F5829D76}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>m</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>b</t>
+  </si>
+  <si>
+    <t>n_env</t>
   </si>
 </sst>
 </file>
@@ -453,7 +456,7 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -508,7 +511,9 @@
       <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1"/>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -553,7 +558,9 @@
       <c r="M2" s="1">
         <v>10</v>
       </c>
-      <c r="N2" s="1"/>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>

--- a/configurations_ppo.xlsx
+++ b/configurations_ppo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ebrambatti\Documents\GitHub\rewardshaping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mprivitera\Documents\GitHub\rewardshaping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81978F04-F522-4CCF-AD6B-FFD3A73B49D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABA76FE-C518-4579-A63C-9AB191570362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DD8557D7-6381-4966-9350-BC63F5829D76}"/>
   </bookViews>
@@ -57,40 +57,51 @@
     <t>mean_demand</t>
   </si>
   <si>
+    <t>configuration</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
     <t>coef_of_var</t>
-  </si>
-  <si>
-    <t>configuration</t>
-  </si>
-  <si>
-    <t>num_episodes</t>
-  </si>
-  <si>
-    <t>total_timesteps</t>
-  </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>n_env</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -114,11 +125,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F816ADEB-AF28-4EFA-B3BB-B28DB9B55580}">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -467,51 +485,51 @@
     <col min="10" max="10" width="10.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.875" customWidth="1"/>
+    <col min="13" max="13" width="13.125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="1"/>
@@ -519,121 +537,131 @@
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>2</v>
       </c>
-      <c r="D2">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="D2" s="3">
         <v>0</v>
       </c>
-      <c r="F2" s="1">
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
         <v>1</v>
       </c>
-      <c r="G2" s="1">
+      <c r="J2" s="2">
         <v>10</v>
       </c>
-      <c r="H2" s="1">
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>2</v>
+      </c>
+      <c r="M2" s="2">
         <v>3</v>
       </c>
-      <c r="I2" s="1">
-        <v>3</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="K2" s="1">
-        <v>20000</v>
-      </c>
-      <c r="L2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="M2" s="1">
-        <v>10</v>
-      </c>
       <c r="N2" s="1">
-        <v>1</v>
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
       <c r="N3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:17">
@@ -903,8 +931,6 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="2:14">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -928,19 +954,8 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14">
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/configurations_ppo.xlsx
+++ b/configurations_ppo.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mprivitera\Documents\GitHub\rewardshaping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\elebr\rewardshaping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABA76FE-C518-4579-A63C-9AB191570362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0DA0D9-1E59-4BAC-BA8D-4BBC2A6329E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DD8557D7-6381-4966-9350-BC63F5829D76}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DD8557D7-6381-4966-9350-BC63F5829D76}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$Q$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$M$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>m</t>
   </si>
@@ -60,32 +60,20 @@
     <t>configuration</t>
   </si>
   <si>
-    <t>Alpha</t>
-  </si>
-  <si>
-    <t>beta</t>
-  </si>
-  <si>
-    <t>p1</t>
-  </si>
-  <si>
-    <t>p2</t>
-  </si>
-  <si>
-    <t>b1</t>
-  </si>
-  <si>
-    <t>b2</t>
-  </si>
-  <si>
     <t>coef_of_var</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,7 +127,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -471,25 +459,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F816ADEB-AF28-4EFA-B3BB-B28DB9B55580}">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.25" customWidth="1"/>
-    <col min="2" max="8" width="6.875" customWidth="1"/>
-    <col min="9" max="9" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.875" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" customWidth="1"/>
+    <col min="2" max="5" width="6.88671875" customWidth="1"/>
+    <col min="6" max="6" width="5.109375" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -500,43 +487,31 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -553,37 +528,25 @@
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H2" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" s="2">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2">
-        <v>10</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2">
-        <v>2</v>
-      </c>
-      <c r="M2" s="2">
         <v>3</v>
       </c>
-      <c r="N2" s="1">
+      <c r="J2" s="1">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -593,14 +556,10 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="1"/>
-      <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="J3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -610,13 +569,9 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -626,13 +581,9 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -642,13 +593,9 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -658,13 +605,9 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="E8" s="1"/>
@@ -673,12 +616,8 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:17">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="E9" s="1"/>
@@ -687,12 +626,8 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:17">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="E10" s="1"/>
@@ -701,12 +636,8 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:17">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="E11" s="1"/>
@@ -715,12 +646,8 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:17">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="E12" s="1"/>
@@ -729,12 +656,8 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:17">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="E13" s="1"/>
@@ -743,12 +666,8 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:17">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="E14" s="1"/>
@@ -757,12 +676,8 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:17">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="E15" s="1"/>
@@ -771,12 +686,8 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:17">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="E16" s="1"/>
@@ -785,12 +696,8 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="2:14">
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="E17" s="1"/>
@@ -799,12 +706,8 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="2:14">
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="E18" s="1"/>
@@ -813,12 +716,8 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="2:14">
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="E19" s="1"/>
@@ -827,12 +726,8 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="2:14">
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="E20" s="1"/>
@@ -841,12 +736,8 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="2:14">
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="E21" s="1"/>
@@ -855,12 +746,8 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="2:14">
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="E22" s="1"/>
@@ -869,12 +756,8 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="2:14">
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="E23" s="1"/>
@@ -883,12 +766,8 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="2:14">
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="E24" s="1"/>
@@ -897,12 +776,8 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="2:14">
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="E25" s="1"/>
@@ -911,12 +786,8 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="2:14">
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="E26" s="1"/>
@@ -925,34 +796,22 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="2:14">
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="2:14">
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/configurations_ppo.xlsx
+++ b/configurations_ppo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\elebr\rewardshaping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0DA0D9-1E59-4BAC-BA8D-4BBC2A6329E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E227CE-20BD-4F2F-932B-B7C9A721C359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DD8557D7-6381-4966-9350-BC63F5829D76}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>m</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>b</t>
+  </si>
+  <si>
+    <t>base_stock_level</t>
   </si>
 </sst>
 </file>
@@ -462,7 +465,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -507,7 +510,9 @@
       <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>

--- a/configurations_ppo.xlsx
+++ b/configurations_ppo.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/configurations_ppo.xlsx
+++ b/configurations_ppo.xlsx
@@ -1,37 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\elebr\rewardshaping\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029E4F14-9072-45A5-904C-6CD1EFCA6C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>configuration</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>mean_demand</t>
+  </si>
+  <si>
+    <t>coef_of_var</t>
+  </si>
+  <si>
+    <t>base_stock_level</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +90,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,109 +414,83 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>configuration</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>h</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>w</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>mean_demand</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>coef_of_var</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>base_stock_level</t>
-        </is>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>4</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>10</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>2</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>3</v>
       </c>
-      <c r="J2" t="n">
-        <v>9.999999999999999e-12</v>
-      </c>
-      <c r="K2" t="n">
-        <v>9</v>
+      <c r="J2">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="K2">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
